--- a/EURent/EURent-InterfaceSpecifications.xlsx
+++ b/EURent/EURent-InterfaceSpecifications.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
